--- a/ERP_Accounting/TestInput/InputSheetData.xlsx
+++ b/ERP_Accounting/TestInput/InputSheetData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="14295" windowHeight="4620"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="14295" windowHeight="4620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="MasterTestCases" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="101">
   <si>
     <t>TCID</t>
   </si>
@@ -155,13 +155,178 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>Wait for Supplier</t>
+  </si>
+  <si>
+    <t>Click On Supplier</t>
+  </si>
+  <si>
+    <t>Wait For Add Button</t>
+  </si>
+  <si>
+    <t>Click On Add Button</t>
+  </si>
+  <si>
+    <t>Wait For SupplierNumber</t>
+  </si>
+  <si>
+    <t>Capture Data</t>
+  </si>
+  <si>
+    <t>captureData</t>
+  </si>
+  <si>
+    <t>Wait For SupplierName</t>
+  </si>
+  <si>
+    <t>Enter Supplier Name</t>
+  </si>
+  <si>
+    <t>Motorlla</t>
+  </si>
+  <si>
+    <t>Wait For Address</t>
+  </si>
+  <si>
+    <t>Enter Address</t>
+  </si>
+  <si>
+    <t>New Area Colony</t>
+  </si>
+  <si>
+    <t>Wait For City</t>
+  </si>
+  <si>
+    <t>Enter City</t>
+  </si>
+  <si>
+    <t>Chennai</t>
+  </si>
+  <si>
+    <t>Wait For Country</t>
+  </si>
+  <si>
+    <t>Enter Country</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Wait For Contact Person</t>
+  </si>
+  <si>
+    <t>Enter Contact Person</t>
+  </si>
+  <si>
+    <t>jamal321</t>
+  </si>
+  <si>
+    <t>Wait For Phone Number</t>
+  </si>
+  <si>
+    <t>Enter Phone Number</t>
+  </si>
+  <si>
+    <t>Wait For Email</t>
+  </si>
+  <si>
+    <t>Enter Email ID</t>
+  </si>
+  <si>
+    <t>danish@gmail.com</t>
+  </si>
+  <si>
+    <t>Wait For Mobile Number</t>
+  </si>
+  <si>
+    <t>Enter Mobile Number</t>
+  </si>
+  <si>
+    <t>Wait For Notes</t>
+  </si>
+  <si>
+    <t>Enter the Note</t>
+  </si>
+  <si>
+    <t>Purchase done.</t>
+  </si>
+  <si>
+    <t>Wait For Ok Button</t>
+  </si>
+  <si>
+    <t>Click On Ok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wait For Alert </t>
+  </si>
+  <si>
+    <t>Click On Alert</t>
+  </si>
+  <si>
+    <t>Table Validation</t>
+  </si>
+  <si>
+    <t>tableValidation</t>
+  </si>
+  <si>
+    <t>CloseBrowser</t>
+  </si>
+  <si>
+    <t>//li[@id='mi_a_suppliers']</t>
+  </si>
+  <si>
+    <t>//*[@id='x_Supplier_Number']</t>
+  </si>
+  <si>
+    <t>x_Supplier_Number</t>
+  </si>
+  <si>
+    <t>x_Supplier_Name</t>
+  </si>
+  <si>
+    <t>//textarea[@id='x_Address']</t>
+  </si>
+  <si>
+    <t>//input[@id='x_City']</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Country']</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Contact_Person']</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Phone_Number']</t>
+  </si>
+  <si>
+    <t>//input[@id='x__Email']</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Mobile_Number']</t>
+  </si>
+  <si>
+    <t>//textarea[@id='x_Notes']</t>
+  </si>
+  <si>
+    <t>btnAction</t>
+  </si>
+  <si>
+    <t>(//*[text()='OK!'])[1]</t>
+  </si>
+  <si>
+    <t>(//*[text()='OK'])[6]</t>
+  </si>
+  <si>
+    <t>//*[@id="ewContentColumn"]/div[3]/div[1]/div[1]/div[1]/div/a/span</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,6 +371,19 @@
       <sz val="14"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -298,10 +476,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -313,8 +495,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -609,8 +796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -641,7 +828,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="D2" s="6"/>
     </row>
@@ -653,7 +840,7 @@
         <v>41</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -680,7 +867,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection sqref="A1:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -954,13 +1141,768 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="32" customWidth="1"/>
+    <col min="2" max="2" width="32.7109375" customWidth="1"/>
+    <col min="3" max="3" width="24" customWidth="1"/>
+    <col min="4" max="4" width="63.7109375" customWidth="1"/>
+    <col min="5" max="5" width="25.85546875" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18.75">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="18.75">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" ht="18.75">
+      <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" ht="18.75">
+      <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="1">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" ht="18.75">
+      <c r="A5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" ht="18.75">
+      <c r="A6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="1">
+        <v>10</v>
+      </c>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" ht="18.75">
+      <c r="A7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" ht="18.75">
+      <c r="A8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="1">
+        <v>10</v>
+      </c>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" ht="20.25">
+      <c r="A9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" ht="18.75">
+      <c r="A10" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" s="1">
+        <v>10</v>
+      </c>
+      <c r="F10" s="12"/>
+    </row>
+    <row r="11" spans="1:6" ht="18.75">
+      <c r="A11" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="12"/>
+    </row>
+    <row r="12" spans="1:6" ht="18.75">
+      <c r="A12" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="E12" s="1">
+        <v>10</v>
+      </c>
+      <c r="F12" s="12"/>
+    </row>
+    <row r="13" spans="1:6" ht="18.75">
+      <c r="A13" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="1:6" ht="18.75">
+      <c r="A14" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" s="1">
+        <v>10</v>
+      </c>
+      <c r="F14" s="12"/>
+    </row>
+    <row r="15" spans="1:6" ht="18.75">
+      <c r="A15" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="12"/>
+    </row>
+    <row r="16" spans="1:6" ht="18.75">
+      <c r="A16" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" s="1">
+        <v>10</v>
+      </c>
+      <c r="F16" s="12"/>
+    </row>
+    <row r="17" spans="1:6" ht="18.75">
+      <c r="A17" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="12"/>
+    </row>
+    <row r="18" spans="1:6" ht="18.75">
+      <c r="A18" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" s="1">
+        <v>10</v>
+      </c>
+      <c r="F18" s="12"/>
+    </row>
+    <row r="19" spans="1:6" ht="18.75">
+      <c r="A19" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" s="12"/>
+    </row>
+    <row r="20" spans="1:6" ht="18.75">
+      <c r="A20" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20" s="1">
+        <v>10</v>
+      </c>
+      <c r="F20" s="12"/>
+    </row>
+    <row r="21" spans="1:6" ht="18.75">
+      <c r="A21" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" s="12"/>
+    </row>
+    <row r="22" spans="1:6" ht="18.75">
+      <c r="A22" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E22" s="1">
+        <v>10</v>
+      </c>
+      <c r="F22" s="12"/>
+    </row>
+    <row r="23" spans="1:6" ht="18.75">
+      <c r="A23" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F23" s="12"/>
+    </row>
+    <row r="24" spans="1:6" ht="18.75">
+      <c r="A24" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E24" s="1">
+        <v>10</v>
+      </c>
+      <c r="F24" s="12"/>
+    </row>
+    <row r="25" spans="1:6" ht="18.75">
+      <c r="A25" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F25" s="12"/>
+    </row>
+    <row r="26" spans="1:6" ht="18.75">
+      <c r="A26" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="E26" s="1">
+        <v>10</v>
+      </c>
+      <c r="F26" s="12"/>
+    </row>
+    <row r="27" spans="1:6" ht="18.75">
+      <c r="A27" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="E27" s="11">
+        <v>6252509890</v>
+      </c>
+      <c r="F27" s="12"/>
+    </row>
+    <row r="28" spans="1:6" ht="18.75">
+      <c r="A28" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E28" s="1">
+        <v>10</v>
+      </c>
+      <c r="F28" s="12"/>
+    </row>
+    <row r="29" spans="1:6" ht="18.75">
+      <c r="A29" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="F29" s="12"/>
+    </row>
+    <row r="30" spans="1:6" ht="18.75">
+      <c r="A30" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E30" s="1">
+        <v>10</v>
+      </c>
+      <c r="F30" s="12"/>
+    </row>
+    <row r="31" spans="1:6" ht="18.75">
+      <c r="A31" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E31" s="1">
+        <v>645746634</v>
+      </c>
+      <c r="F31" s="12"/>
+    </row>
+    <row r="32" spans="1:6" ht="18.75">
+      <c r="A32" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="E32" s="1">
+        <v>10</v>
+      </c>
+      <c r="F32" s="12"/>
+    </row>
+    <row r="33" spans="1:6" ht="18.75">
+      <c r="A33" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="F33" s="12"/>
+    </row>
+    <row r="34" spans="1:6" ht="18.75">
+      <c r="A34" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="E34" s="1">
+        <v>10</v>
+      </c>
+      <c r="F34" s="12"/>
+    </row>
+    <row r="35" spans="1:6" ht="18.75">
+      <c r="A35" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" s="12"/>
+    </row>
+    <row r="36" spans="1:6" ht="18.75">
+      <c r="A36" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E36" s="1">
+        <v>10</v>
+      </c>
+      <c r="F36" s="12"/>
+    </row>
+    <row r="37" spans="1:6" ht="18.75">
+      <c r="A37" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" s="12"/>
+    </row>
+    <row r="38" spans="1:6" ht="18.75">
+      <c r="A38" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E38" s="1">
+        <v>10</v>
+      </c>
+      <c r="F38" s="12"/>
+    </row>
+    <row r="39" spans="1:6" ht="18.75">
+      <c r="A39" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" s="12"/>
+    </row>
+    <row r="40" spans="1:6" ht="18.75">
+      <c r="A40" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E40" s="1">
+        <v>6</v>
+      </c>
+      <c r="F40" s="12"/>
+    </row>
+    <row r="41" spans="1:6" ht="18.75">
+      <c r="A41" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F41" s="12"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E29" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/ERP_Accounting/TestInput/InputSheetData.xlsx
+++ b/ERP_Accounting/TestInput/InputSheetData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="14295" windowHeight="4620" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="14295" windowHeight="4620"/>
   </bookViews>
   <sheets>
     <sheet name="MasterTestCases" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="115">
   <si>
     <t>TCID</t>
   </si>
@@ -154,9 +154,6 @@
     <t>StockCategories</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>Wait for Supplier</t>
   </si>
   <si>
@@ -184,45 +181,30 @@
     <t>Enter Supplier Name</t>
   </si>
   <si>
-    <t>Motorlla</t>
-  </si>
-  <si>
     <t>Wait For Address</t>
   </si>
   <si>
     <t>Enter Address</t>
   </si>
   <si>
-    <t>New Area Colony</t>
-  </si>
-  <si>
     <t>Wait For City</t>
   </si>
   <si>
     <t>Enter City</t>
   </si>
   <si>
-    <t>Chennai</t>
-  </si>
-  <si>
     <t>Wait For Country</t>
   </si>
   <si>
     <t>Enter Country</t>
   </si>
   <si>
-    <t>India</t>
-  </si>
-  <si>
     <t>Wait For Contact Person</t>
   </si>
   <si>
     <t>Enter Contact Person</t>
   </si>
   <si>
-    <t>jamal321</t>
-  </si>
-  <si>
     <t>Wait For Phone Number</t>
   </si>
   <si>
@@ -320,6 +302,66 @@
   </si>
   <si>
     <t>//*[@id="ewContentColumn"]/div[3]/div[1]/div[1]/div[1]/div/a/span</t>
+  </si>
+  <si>
+    <t>Wait For Stock Item</t>
+  </si>
+  <si>
+    <t>Mouse Click</t>
+  </si>
+  <si>
+    <t>stockCategories</t>
+  </si>
+  <si>
+    <t>Wait For Category Name</t>
+  </si>
+  <si>
+    <t>Enter Category Name</t>
+  </si>
+  <si>
+    <t>Click on Add Button</t>
+  </si>
+  <si>
+    <t>Wait For OK Button</t>
+  </si>
+  <si>
+    <t>Click On Ok Button</t>
+  </si>
+  <si>
+    <t>Wait For Alert Button</t>
+  </si>
+  <si>
+    <t>Click On Alert Button</t>
+  </si>
+  <si>
+    <t>stockValidation</t>
+  </si>
+  <si>
+    <t>//li[@id='mi_a_stock_items']//a[contains(text(),'Stock Items')]</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Category_Name']</t>
+  </si>
+  <si>
+    <t>//button[@id='btnAction']</t>
+  </si>
+  <si>
+    <t>HTC Mobile2</t>
+  </si>
+  <si>
+    <t>Motorlla1</t>
+  </si>
+  <si>
+    <t>New Area Colony1</t>
+  </si>
+  <si>
+    <t>Chennai1</t>
+  </si>
+  <si>
+    <t>India1</t>
+  </si>
+  <si>
+    <t>jamal3211</t>
   </si>
 </sst>
 </file>
@@ -483,7 +525,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -499,6 +541,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -796,8 +839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -828,7 +871,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="D2" s="6"/>
     </row>
@@ -852,7 +895,7 @@
         <v>44</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="D4" s="1"/>
     </row>
@@ -867,7 +910,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F9"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1143,8 +1186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1323,7 +1366,7 @@
     </row>
     <row r="10" spans="1:6" ht="18.75">
       <c r="A10" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>18</v>
@@ -1332,7 +1375,7 @@
         <v>31</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E10" s="1">
         <v>10</v>
@@ -1341,7 +1384,7 @@
     </row>
     <row r="11" spans="1:6" ht="18.75">
       <c r="A11" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>30</v>
@@ -1350,7 +1393,7 @@
         <v>31</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>14</v>
@@ -1359,7 +1402,7 @@
     </row>
     <row r="12" spans="1:6" ht="18.75">
       <c r="A12" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>18</v>
@@ -1368,7 +1411,7 @@
         <v>31</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E12" s="1">
         <v>10</v>
@@ -1377,7 +1420,7 @@
     </row>
     <row r="13" spans="1:6" ht="18.75">
       <c r="A13" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>30</v>
@@ -1386,7 +1429,7 @@
         <v>31</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>14</v>
@@ -1395,7 +1438,7 @@
     </row>
     <row r="14" spans="1:6" ht="18.75">
       <c r="A14" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>18</v>
@@ -1404,7 +1447,7 @@
         <v>31</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E14" s="1">
         <v>10</v>
@@ -1413,16 +1456,16 @@
     </row>
     <row r="15" spans="1:6" ht="18.75">
       <c r="A15" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="11" t="s">
         <v>51</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>52</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>19</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>14</v>
@@ -1431,7 +1474,7 @@
     </row>
     <row r="16" spans="1:6" ht="18.75">
       <c r="A16" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>18</v>
@@ -1440,7 +1483,7 @@
         <v>19</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E16" s="1">
         <v>10</v>
@@ -1449,7 +1492,7 @@
     </row>
     <row r="17" spans="1:6" ht="18.75">
       <c r="A17" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>23</v>
@@ -1458,16 +1501,16 @@
         <v>19</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="F17" s="12"/>
     </row>
     <row r="18" spans="1:6" ht="18.75">
       <c r="A18" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>18</v>
@@ -1476,7 +1519,7 @@
         <v>31</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E18" s="1">
         <v>10</v>
@@ -1485,7 +1528,7 @@
     </row>
     <row r="19" spans="1:6" ht="18.75">
       <c r="A19" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>23</v>
@@ -1494,16 +1537,16 @@
         <v>31</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>58</v>
+        <v>111</v>
       </c>
       <c r="F19" s="12"/>
     </row>
     <row r="20" spans="1:6" ht="18.75">
       <c r="A20" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>18</v>
@@ -1512,7 +1555,7 @@
         <v>31</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E20" s="1">
         <v>10</v>
@@ -1521,7 +1564,7 @@
     </row>
     <row r="21" spans="1:6" ht="18.75">
       <c r="A21" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>23</v>
@@ -1530,16 +1573,16 @@
         <v>31</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>61</v>
+        <v>112</v>
       </c>
       <c r="F21" s="12"/>
     </row>
     <row r="22" spans="1:6" ht="18.75">
       <c r="A22" s="11" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B22" s="11" t="s">
         <v>18</v>
@@ -1548,7 +1591,7 @@
         <v>31</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E22" s="1">
         <v>10</v>
@@ -1557,7 +1600,7 @@
     </row>
     <row r="23" spans="1:6" ht="18.75">
       <c r="A23" s="11" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>23</v>
@@ -1566,16 +1609,16 @@
         <v>31</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>64</v>
+        <v>113</v>
       </c>
       <c r="F23" s="12"/>
     </row>
     <row r="24" spans="1:6" ht="18.75">
       <c r="A24" s="11" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>18</v>
@@ -1584,7 +1627,7 @@
         <v>31</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E24" s="1">
         <v>10</v>
@@ -1593,7 +1636,7 @@
     </row>
     <row r="25" spans="1:6" ht="18.75">
       <c r="A25" s="11" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B25" s="11" t="s">
         <v>23</v>
@@ -1602,16 +1645,16 @@
         <v>31</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>67</v>
+        <v>114</v>
       </c>
       <c r="F25" s="12"/>
     </row>
     <row r="26" spans="1:6" ht="18.75">
       <c r="A26" s="11" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>18</v>
@@ -1620,7 +1663,7 @@
         <v>31</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E26" s="1">
         <v>10</v>
@@ -1629,7 +1672,7 @@
     </row>
     <row r="27" spans="1:6" ht="18.75">
       <c r="A27" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B27" s="11" t="s">
         <v>23</v>
@@ -1638,7 +1681,7 @@
         <v>31</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E27" s="11">
         <v>6252509890</v>
@@ -1647,7 +1690,7 @@
     </row>
     <row r="28" spans="1:6" ht="18.75">
       <c r="A28" s="11" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>18</v>
@@ -1656,7 +1699,7 @@
         <v>31</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E28" s="1">
         <v>10</v>
@@ -1665,7 +1708,7 @@
     </row>
     <row r="29" spans="1:6" ht="18.75">
       <c r="A29" s="11" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>23</v>
@@ -1674,16 +1717,16 @@
         <v>31</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F29" s="12"/>
     </row>
     <row r="30" spans="1:6" ht="18.75">
       <c r="A30" s="11" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B30" s="11" t="s">
         <v>18</v>
@@ -1692,7 +1735,7 @@
         <v>31</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E30" s="1">
         <v>10</v>
@@ -1701,7 +1744,7 @@
     </row>
     <row r="31" spans="1:6" ht="18.75">
       <c r="A31" s="11" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B31" s="11" t="s">
         <v>23</v>
@@ -1710,16 +1753,16 @@
         <v>31</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E31" s="1">
-        <v>645746634</v>
+        <v>1645746634</v>
       </c>
       <c r="F31" s="12"/>
     </row>
     <row r="32" spans="1:6" ht="18.75">
       <c r="A32" s="11" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B32" s="11" t="s">
         <v>18</v>
@@ -1728,7 +1771,7 @@
         <v>31</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E32" s="1">
         <v>10</v>
@@ -1737,7 +1780,7 @@
     </row>
     <row r="33" spans="1:6" ht="18.75">
       <c r="A33" s="11" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B33" s="11" t="s">
         <v>23</v>
@@ -1746,16 +1789,16 @@
         <v>31</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F33" s="12"/>
     </row>
     <row r="34" spans="1:6" ht="18.75">
       <c r="A34" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B34" s="11" t="s">
         <v>18</v>
@@ -1764,7 +1807,7 @@
         <v>19</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E34" s="1">
         <v>10</v>
@@ -1773,7 +1816,7 @@
     </row>
     <row r="35" spans="1:6" ht="18.75">
       <c r="A35" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B35" s="11" t="s">
         <v>30</v>
@@ -1782,7 +1825,7 @@
         <v>19</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E35" s="11" t="s">
         <v>14</v>
@@ -1791,7 +1834,7 @@
     </row>
     <row r="36" spans="1:6" ht="18.75">
       <c r="A36" s="11" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B36" s="11" t="s">
         <v>18</v>
@@ -1800,7 +1843,7 @@
         <v>31</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E36" s="1">
         <v>10</v>
@@ -1809,7 +1852,7 @@
     </row>
     <row r="37" spans="1:6" ht="18.75">
       <c r="A37" s="11" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B37" s="11" t="s">
         <v>30</v>
@@ -1818,7 +1861,7 @@
         <v>31</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E37" s="11" t="s">
         <v>14</v>
@@ -1827,7 +1870,7 @@
     </row>
     <row r="38" spans="1:6" ht="18.75">
       <c r="A38" s="11" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B38" s="11" t="s">
         <v>18</v>
@@ -1836,7 +1879,7 @@
         <v>31</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E38" s="1">
         <v>10</v>
@@ -1845,7 +1888,7 @@
     </row>
     <row r="39" spans="1:6" ht="18.75">
       <c r="A39" s="11" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B39" s="11" t="s">
         <v>30</v>
@@ -1854,7 +1897,7 @@
         <v>31</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E39" s="11" t="s">
         <v>14</v>
@@ -1863,10 +1906,10 @@
     </row>
     <row r="40" spans="1:6" ht="18.75">
       <c r="A40" s="11" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>14</v>
@@ -1881,7 +1924,7 @@
     </row>
     <row r="41" spans="1:6" ht="18.75">
       <c r="A41" s="11" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B41" s="11" t="s">
         <v>38</v>
@@ -1908,14 +1951,439 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="35.42578125" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="58.7109375" customWidth="1"/>
+    <col min="5" max="5" width="25.5703125" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18.75">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="18.75">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" ht="18.75">
+      <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" ht="18.75">
+      <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="1">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" ht="18.75">
+      <c r="A5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" ht="18.75">
+      <c r="A6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="1">
+        <v>10</v>
+      </c>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" ht="18.75">
+      <c r="A7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" ht="18.75">
+      <c r="A8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="1">
+        <v>10</v>
+      </c>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" ht="20.25">
+      <c r="A9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" ht="18.75">
+      <c r="A10" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="E10" s="12">
+        <v>10</v>
+      </c>
+      <c r="F10" s="12"/>
+    </row>
+    <row r="11" spans="1:6" ht="18.75">
+      <c r="A11" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="12"/>
+    </row>
+    <row r="12" spans="1:6" ht="18.75">
+      <c r="A12" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E12" s="12">
+        <v>10</v>
+      </c>
+      <c r="F12" s="12"/>
+    </row>
+    <row r="13" spans="1:6" ht="18.75">
+      <c r="A13" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="1:6" ht="18.75">
+      <c r="A14" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="E14" s="12">
+        <v>10</v>
+      </c>
+      <c r="F14" s="12"/>
+    </row>
+    <row r="15" spans="1:6" ht="18.75">
+      <c r="A15" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="F15" s="12"/>
+    </row>
+    <row r="16" spans="1:6" ht="18.75">
+      <c r="A16" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="E16" s="12">
+        <v>10</v>
+      </c>
+      <c r="F16" s="12"/>
+    </row>
+    <row r="17" spans="1:6" ht="18.75">
+      <c r="A17" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="12"/>
+    </row>
+    <row r="18" spans="1:6" ht="18.75">
+      <c r="A18" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" s="12">
+        <v>10</v>
+      </c>
+      <c r="F18" s="12"/>
+    </row>
+    <row r="19" spans="1:6" ht="18.75">
+      <c r="A19" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="12"/>
+    </row>
+    <row r="20" spans="1:6" ht="18.75">
+      <c r="A20" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="E20" s="12">
+        <v>10</v>
+      </c>
+      <c r="F20" s="12"/>
+    </row>
+    <row r="21" spans="1:6" ht="18.75">
+      <c r="A21" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="12"/>
+    </row>
+    <row r="22" spans="1:6" ht="18.75">
+      <c r="A22" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="F22" s="12"/>
+    </row>
+    <row r="23" spans="1:6" ht="18.75">
+      <c r="A23" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="12"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>